--- a/xl/sheet.xlsx
+++ b/xl/sheet.xlsx
@@ -53,10 +53,10 @@
     <t>HASSAN</t>
   </si>
   <si>
-    <t>MYSUR</t>
-  </si>
-  <si>
-    <t>BANGLURE</t>
+    <t>MYSORE</t>
+  </si>
+  <si>
+    <t>BANGLORE</t>
   </si>
   <si>
     <t>9765465432</t>
